--- a/quizsheets/dsaide_idcontrolvaccine.xlsx
+++ b/quizsheets/dsaide_idcontrolvaccine.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Report integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -445,12 +445,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The proportion vaccinated needed to prevent an outbreak</t>
+          <t>The percentage needed to vaccinate/protect to prevent an outbreak</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Report as decimal</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Effective _R_ after vaccination (Part B, _f=0.5_)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Report two decimals</t>
+          <t>value for parameter b to get R=4</t>
         </is>
       </c>
     </row>
@@ -496,21 +491,21 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>T2R2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The proportion vaccinated needed to prevent an outbreak (_e=.75_)</t>
+          <t>Number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Report two decimals</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -530,17 +525,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>T3R1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The proportion vaccinated needed to prevent an outbreak (_e=.60_)</t>
+          <t>The new value for R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Report two decimals</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -556,21 +551,111 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>T3R2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Value of _b_ that prevents an outbreak</t>
+          <t>Number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Report decimal to thousandths</t>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolvaccine</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Basics of ID Control</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The percentage vaccinated needed to prevent an outbreak for _e=0.75_</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Report rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolvaccine</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basics of ID Control</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Value of R0 if transmission is reduced by half</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Report one decimal place</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolvaccine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Basics of ID Control</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Percentage of the initial value to which transmission needs to be reduced</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Report rounded integer</t>
         </is>
       </c>
     </row>

--- a/quizsheets/dsaide_idcontrolvaccine.xlsx
+++ b/quizsheets/dsaide_idcontrolvaccine.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Percentage of the initial value to which transmission needs to be reduced</t>
+          <t>Percentage by which transmission needs to be reduced</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">

--- a/quizsheets/dsaide_idcontrolvaccine.xlsx
+++ b/quizsheets/dsaide_idcontrolvaccine.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T1R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T1R1</t>
+          <t>The new value for R</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>The new value for R</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T1R2</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T1R2</t>
+          <t>The percentage needed to vaccinate/protect to prevent an outbreak</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>The percentage needed to vaccinate/protect to prevent an outbreak</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -462,18 +451,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>T2R1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>value for parameter b to get R=4</t>
         </is>
@@ -487,23 +473,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T2R2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>Number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -517,23 +500,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>The new value for R</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>The new value for R</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -547,23 +527,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>Number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Number of susceptible at end of simulation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -577,23 +554,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>The percentage vaccinated needed to prevent an outbreak for _e=0.75_</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>The percentage vaccinated needed to prevent an outbreak for _e=0.75_</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -607,23 +581,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>Value of R0 if transmission is reduced by half</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Value of R0 if transmission is reduced by half</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Report one decimal place</t>
         </is>
@@ -637,23 +608,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Basics of ID Control</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>Percentage by which transmission needs to be reduced</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>Percentage by which transmission needs to be reduced</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
